--- a/TestOutput/result.xlsx
+++ b/TestOutput/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="4350" windowWidth="12135" xWindow="600" yWindow="390"/>
+    <workbookView activeTab="3" windowHeight="4350" windowWidth="12135" xWindow="600" yWindow="390"/>
   </bookViews>
   <sheets>
     <sheet name="MainScreen" r:id="rId1" sheetId="1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="112">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -173,18 +173,9 @@
     <t>Wait for Table Icon</t>
   </si>
   <si>
-    <t>//i[@class='iconBg tableGridIcon']</t>
-  </si>
-  <si>
     <t>Click on table icon to change view</t>
   </si>
   <si>
-    <t>Click On ID</t>
-  </si>
-  <si>
-    <t>//input[@type='checkbox'][@value='ID']</t>
-  </si>
-  <si>
     <t>Click On Type</t>
   </si>
   <si>
@@ -330,6 +321,33 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>//div[text()='Question Title']/following::input[1]</t>
+  </si>
+  <si>
+    <t>Enter Question Title</t>
+  </si>
+  <si>
+    <t>Type A question AT</t>
+  </si>
+  <si>
+    <t>//a[@class='icon tableGridIcon dropdown-toggle']</t>
+  </si>
+  <si>
+    <t>(//div[text()='Question Description']/following::iframe)[1]</t>
+  </si>
+  <si>
+    <t>(//div[text()='Question Description']/following::iframe)[2]</t>
+  </si>
+  <si>
+    <t>Question description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am here </t>
+  </si>
+  <si>
+    <t>typeText</t>
   </si>
   <si>
     <t>Pass</t>
@@ -343,7 +361,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="69" x14ac:knownFonts="1">
+  <fonts count="71" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,6 +473,18 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="12"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
       <b val="true"/>
     </font>
     <font>
@@ -785,7 +815,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
@@ -864,6 +894,8 @@
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1171,7 +1203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1204,10 +1236,10 @@
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s" s="19">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1215,13 +1247,13 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s" s="20">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1229,13 +1261,13 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" t="s" s="70">
-        <v>104</v>
+        <v>70</v>
+      </c>
+      <c r="D4" t="s" s="72">
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1243,13 +1275,13 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" t="s" s="71">
-        <v>105</v>
+        <v>100</v>
+      </c>
+      <c r="D5" t="s" s="73">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1291,7 +1323,7 @@
         <v>9</v>
       </c>
       <c r="F1" t="s" s="8">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1311,7 +1343,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s" s="9">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1331,7 +1363,7 @@
         <v>12</v>
       </c>
       <c r="F3" t="s" s="10">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1351,7 +1383,7 @@
         <v>20</v>
       </c>
       <c r="F4" t="s" s="11">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1368,10 +1400,10 @@
         <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s" s="12">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1391,7 +1423,7 @@
         <v>4000</v>
       </c>
       <c r="F6" t="s" s="13">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1411,7 +1443,7 @@
         <v>26</v>
       </c>
       <c r="F7" t="s" s="14">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1431,7 +1463,7 @@
         <v>12</v>
       </c>
       <c r="F8" t="s" s="15">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1451,12 +1483,12 @@
         <v>4000</v>
       </c>
       <c r="F9" t="s" s="16">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -1465,13 +1497,13 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E10" s="1">
         <v>20</v>
       </c>
       <c r="F10" t="s" s="17">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1491,7 +1523,7 @@
         <v>12</v>
       </c>
       <c r="F11" t="s" s="18">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1602,7 +1634,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1676,7 +1708,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -1685,7 +1717,7 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E10" s="1">
         <v>20</v>
@@ -1693,7 +1725,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
@@ -1702,7 +1734,7 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
@@ -1804,10 +1836,10 @@
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1851,10 +1883,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1862,7 +1894,7 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="31.42578125" collapsed="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="15.28515625" collapsed="false"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="40.28515625" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="54.0" collapsed="false"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="39.7109375" collapsed="false"/>
   </cols>
   <sheetData>
@@ -1883,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="F1" t="s" s="21">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1903,7 +1935,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s" s="22">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1923,7 +1955,7 @@
         <v>12</v>
       </c>
       <c r="F3" t="s" s="23">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1943,7 +1975,7 @@
         <v>20</v>
       </c>
       <c r="F4" t="s" s="24">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1960,10 +1992,10 @@
         <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s" s="25">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1983,7 +2015,7 @@
         <v>4000</v>
       </c>
       <c r="F6" t="s" s="26">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2003,7 +2035,7 @@
         <v>26</v>
       </c>
       <c r="F7" t="s" s="27">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2023,7 +2055,7 @@
         <v>12</v>
       </c>
       <c r="F8" t="s" s="28">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2043,7 +2075,7 @@
         <v>3000</v>
       </c>
       <c r="F9" t="s" s="29">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2063,7 +2095,7 @@
         <v>12</v>
       </c>
       <c r="F10" t="s" s="30">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2083,7 +2115,7 @@
         <v>4000</v>
       </c>
       <c r="F11" t="s" s="31">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2103,7 +2135,7 @@
         <v>48</v>
       </c>
       <c r="F12" t="s" s="32">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2123,7 +2155,7 @@
         <v>4000</v>
       </c>
       <c r="F13" t="s" s="33">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2137,13 +2169,13 @@
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F14" t="s" s="34">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2163,7 +2195,7 @@
         <v>560</v>
       </c>
       <c r="F15" t="s" s="35">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2183,7 +2215,7 @@
         <v>4000</v>
       </c>
       <c r="F16" t="s" s="36">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2203,7 +2235,7 @@
         <v>-560</v>
       </c>
       <c r="F17" t="s" s="37">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2217,18 +2249,18 @@
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="E18" s="1">
         <v>20</v>
       </c>
       <c r="F18" t="s" s="38">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
@@ -2237,13 +2269,13 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F19" t="s" s="39">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2263,12 +2295,12 @@
         <v>2000</v>
       </c>
       <c r="F20" t="s" s="40">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
         <v>28</v>
@@ -2277,13 +2309,13 @@
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F21" t="s" s="41">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2303,12 +2335,12 @@
         <v>2000</v>
       </c>
       <c r="F22" t="s" s="42">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
         <v>28</v>
@@ -2317,13 +2349,13 @@
         <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F23" t="s" s="43">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2343,12 +2375,12 @@
         <v>2000</v>
       </c>
       <c r="F24" t="s" s="44">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
@@ -2357,13 +2389,13 @@
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F25" t="s" s="45">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2380,15 +2412,15 @@
         <v>12</v>
       </c>
       <c r="E26" s="1">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F26" t="s" s="46">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
@@ -2397,13 +2429,13 @@
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F27" t="s" s="47">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2420,10 +2452,10 @@
         <v>12</v>
       </c>
       <c r="E28" s="1">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="F28" t="s" s="48">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2437,241 +2469,241 @@
         <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F29" t="s" s="49">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2000</v>
       </c>
       <c r="F30" t="s" s="50">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="1">
-        <v>2000</v>
+        <v>86</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F31" t="s" s="51">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3000</v>
       </c>
       <c r="F32" t="s" s="52">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="1">
-        <v>2000</v>
+        <v>47</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F33" t="s" s="53">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E34" s="1">
+        <v>4000</v>
       </c>
       <c r="F34" t="s" s="54">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="1">
-        <v>3000</v>
+        <v>72</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F35" t="s" s="55">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E36" s="1">
+        <v>4000</v>
       </c>
       <c r="F36" t="s" s="56">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="1">
-        <v>4000</v>
+        <v>87</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F37" t="s" s="57">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>75</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2000</v>
       </c>
       <c r="F38" t="s" s="58">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="1">
-        <v>4000</v>
+        <v>99</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F39" t="s" s="59">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E40" s="1">
+        <v>3000</v>
       </c>
       <c r="F40" t="s" s="60">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
@@ -2680,38 +2712,38 @@
         <v>12</v>
       </c>
       <c r="E41" s="1">
-        <v>2000</v>
+        <v>460</v>
       </c>
       <c r="F41" t="s" s="61">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>102</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2000</v>
       </c>
       <c r="F42" t="s" s="62">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
@@ -2720,18 +2752,18 @@
         <v>12</v>
       </c>
       <c r="E43" s="1">
-        <v>3000</v>
+        <v>-560</v>
       </c>
       <c r="F43" t="s" s="63">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
@@ -2740,18 +2772,18 @@
         <v>12</v>
       </c>
       <c r="E44" s="1">
-        <v>460</v>
+        <v>2000</v>
       </c>
       <c r="F44" t="s" s="64">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
@@ -2759,19 +2791,19 @@
       <c r="D45" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="1">
-        <v>2000</v>
+      <c r="E45" t="s">
+        <v>98</v>
       </c>
       <c r="F45" t="s" s="65">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
@@ -2780,38 +2812,38 @@
         <v>12</v>
       </c>
       <c r="E46" s="1">
-        <v>-560</v>
+        <v>4000</v>
       </c>
       <c r="F46" t="s" s="66">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="1">
-        <v>2000</v>
+        <v>101</v>
+      </c>
+      <c r="E47" t="s">
+        <v>103</v>
       </c>
       <c r="F47" t="s" s="67">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
@@ -2819,31 +2851,71 @@
       <c r="D48" t="s">
         <v>12</v>
       </c>
-      <c r="E48" t="s">
-        <v>101</v>
+      <c r="E48" s="1">
+        <v>5000</v>
       </c>
       <c r="F48" t="s" s="68">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E49" t="s">
+        <v>108</v>
+      </c>
+      <c r="F49" t="s" s="69">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>31</v>
       </c>
-      <c r="B49" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="1">
+      <c r="B50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="1">
         <v>4000</v>
       </c>
-      <c r="F49" t="s" s="69">
-        <v>104</v>
+      <c r="F50" t="s" s="70">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" t="s">
+        <v>106</v>
+      </c>
+      <c r="E51" t="s">
+        <v>107</v>
+      </c>
+      <c r="F51" t="s" s="71">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2950,7 +3022,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3006,7 +3078,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -3023,7 +3095,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
@@ -3032,7 +3104,7 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
@@ -3040,7 +3112,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -3057,7 +3129,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
@@ -3069,7 +3141,7 @@
         <v>47</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3091,7 +3163,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
@@ -3100,7 +3172,7 @@
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>12</v>
@@ -3125,7 +3197,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
         <v>28</v>
@@ -3134,7 +3206,7 @@
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>12</v>
@@ -3159,7 +3231,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
         <v>28</v>
@@ -3168,7 +3240,7 @@
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>12</v>
@@ -3193,7 +3265,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
@@ -3202,7 +3274,7 @@
         <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>12</v>
@@ -3227,7 +3299,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
@@ -3236,7 +3308,7 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>12</v>
@@ -3261,7 +3333,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
@@ -3270,7 +3342,7 @@
         <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>12</v>
@@ -3295,7 +3367,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
@@ -3304,7 +3376,7 @@
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>12</v>
@@ -3329,7 +3401,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
@@ -3338,7 +3410,7 @@
         <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>12</v>
@@ -3363,7 +3435,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
@@ -3372,7 +3444,7 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>12</v>
